--- a/excelTemplate/exportUnReleaseStatisticsTemplate.xlsx
+++ b/excelTemplate/exportUnReleaseStatisticsTemplate.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="UN-RELEASED SHIPMENT" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UN-RELEASED SHIPMENT'!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UN-RELEASED SHIPMENT'!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>SEQ</t>
   </si>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_receipt_date%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container Size Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.containers_size_type%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1299,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1316,16 +1324,16 @@
     <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="15" width="38.5" customWidth="1"/>
-    <col min="16" max="16" width="32.25" customWidth="1"/>
-    <col min="17" max="17" width="41.125" customWidth="1"/>
-    <col min="18" max="20" width="31.875" customWidth="1"/>
-    <col min="21" max="21" width="32.375" customWidth="1"/>
-    <col min="22" max="23" width="13.375" customWidth="1"/>
+    <col min="11" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="16" width="38.5" customWidth="1"/>
+    <col min="17" max="17" width="32.25" customWidth="1"/>
+    <col min="18" max="18" width="41.125" customWidth="1"/>
+    <col min="19" max="21" width="31.875" customWidth="1"/>
+    <col min="22" max="22" width="32.375" customWidth="1"/>
+    <col min="23" max="24" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="33" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1360,37 +1368,40 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -1425,37 +1436,40 @@
         <v>27</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1464,7 +1478,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1473,7 +1487,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1482,7 +1496,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1491,7 +1505,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1500,7 +1514,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1509,7 +1523,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1518,7 +1532,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1527,7 +1541,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1537,7 +1551,7 @@
       <c r="H11" s="2"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1546,7 +1560,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1554,7 +1568,7 @@
       <c r="F13" s="1"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1562,7 +1576,7 @@
       <c r="F14" s="1"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1570,7 +1584,7 @@
       <c r="F15" s="1"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1786,7 +1800,7 @@
       <c r="E43" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1"/>
+  <autoFilter ref="A1:V1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excelTemplate/exportUnReleaseStatisticsTemplate.xlsx
+++ b/excelTemplate/exportUnReleaseStatisticsTemplate.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38285938-4BBC-2545-8CF1-5807D45B6150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="599"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28380" windowHeight="10420" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UN-RELEASED SHIPMENT" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UN-RELEASED SHIPMENT'!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UN-RELEASED SHIPMENT'!$A$1:$AC$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>SEQ</t>
   </si>
@@ -179,17 +180,73 @@
   </si>
   <si>
     <t>&lt;%=rs1.containers_size_type%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description of Goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Package</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package Unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Weight Unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Volume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Volume Unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_goods_description%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_package_no%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_package_unit%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_gross_weight%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_gross_weight_unit%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_gross_volume%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_gross_volume_unit%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -273,14 +330,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,8 +345,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -299,21 +354,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="千位分隔 2" xfId="3"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="千位分隔 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1021,9 +1078,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1061,9 +1118,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1098,7 +1155,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,7 +1190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1306,501 +1363,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="16" width="38.5" customWidth="1"/>
-    <col min="17" max="17" width="32.25" customWidth="1"/>
-    <col min="18" max="18" width="41.125" customWidth="1"/>
-    <col min="19" max="21" width="31.875" customWidth="1"/>
-    <col min="22" max="22" width="32.375" customWidth="1"/>
-    <col min="23" max="24" width="13.375" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="35" customWidth="1"/>
+    <col min="14" max="19" width="11.6640625" customWidth="1"/>
+    <col min="20" max="23" width="38.5" customWidth="1"/>
+    <col min="24" max="24" width="32.1640625" customWidth="1"/>
+    <col min="25" max="25" width="41.1640625" customWidth="1"/>
+    <col min="26" max="28" width="31.83203125" customWidth="1"/>
+    <col min="29" max="29" width="32.33203125" customWidth="1"/>
+    <col min="30" max="31" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:29" ht="30">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:29" ht="31" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="U2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="V2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="W2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="X2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="Y2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="Z2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="AA2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="AB2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="AC2" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:29">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:29">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:29">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:29">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:29">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:29">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="9" spans="1:29">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:29">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+    <row r="11" spans="1:29">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+    <row r="13" spans="1:29">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+    <row r="14" spans="1:29">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+    <row r="15" spans="1:29">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+    <row r="16" spans="1:29">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+    <row r="17" spans="5:8">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+    <row r="18" spans="5:8">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="H18" s="2"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+    </row>
+    <row r="19" spans="5:8">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+    <row r="20" spans="5:8">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+    <row r="21" spans="5:8">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+    <row r="22" spans="5:8">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+    <row r="23" spans="5:8">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+    <row r="24" spans="5:8">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+    <row r="25" spans="5:8">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+    <row r="26" spans="5:8">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+    <row r="27" spans="5:8">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+    <row r="28" spans="5:8">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+    <row r="29" spans="5:8">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+    <row r="30" spans="5:8">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+    <row r="31" spans="5:8">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+    <row r="32" spans="5:8">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+    <row r="33" spans="5:8">
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+    <row r="34" spans="5:8">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+    <row r="35" spans="5:8">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+    <row r="36" spans="5:8">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+    <row r="37" spans="5:8">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+    <row r="38" spans="5:8">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+    <row r="39" spans="5:8">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+    <row r="40" spans="5:8">
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+    <row r="41" spans="5:8">
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:8">
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:8">
       <c r="E43" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1"/>
+  <autoFilter ref="A1:AC1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
